--- a/data/trans_camb/P28B_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P28B_1_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-23,78</t>
+          <t>-21,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-22,17</t>
+          <t>-21,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-22,06</t>
+          <t>-21,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,81</t>
+          <t>-8,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,24</t>
+          <t>-8,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,56</t>
+          <t>-16,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-19,16</t>
+          <t>-14,42</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,65</t>
+          <t>-14,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-15,98</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-16,31</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-20,43</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-13,61</t>
+          <t>-18,4</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,55; -15,75</t>
+          <t>-32,85; -9,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,18; -14,54</t>
+          <t>-33,23; -10,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,19; -11,77</t>
+          <t>-32,52; -9,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,58; -6,99</t>
+          <t>-21,24; 2,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,42; -2,35</t>
+          <t>-18,61; 0,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,82; -4,79</t>
+          <t>-25,45; -7,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,67; -13,49</t>
+          <t>-22,89; -6,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,05; -5,74</t>
+          <t>-21,67; -6,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,01; -10,78</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-21,29; -11,03</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-25,13; -15,15</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-18,46; -7,97</t>
+          <t>-25,74; -10,71</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-69,13%</t>
+          <t>-64,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-64,45%</t>
+          <t>-63,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-64,12%</t>
+          <t>-62,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-43,06%</t>
+          <t>-27,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-30,33%</t>
+          <t>-27,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,26%</t>
+          <t>-51,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-56,76%</t>
+          <t>-44,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-37,48%</t>
+          <t>-44,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-46,96%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-47,92%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-60,02%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-39,99%</t>
+          <t>-56,37%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-81,03; -52,59</t>
+          <t>-80,81; -37,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-75,12; -48,15</t>
+          <t>-77,55; -40,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-76,2; -37,7</t>
+          <t>-77,3; -34,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,97; -24,06</t>
+          <t>-54,5; 11,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,21; -6,65</t>
+          <t>-47,83; 2,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,09; -15,43</t>
+          <t>-64,87; -28,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,54; -43,16</t>
+          <t>-60,81; -22,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,8; -18,69</t>
+          <t>-57,98; -23,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-59,5; -32,29</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-57,64; -35,29</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-69,31; -48,23</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-51,02; -25,72</t>
+          <t>-66,87; -38,29</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,37</t>
+          <t>-10,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-18,18</t>
+          <t>-18,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-20,8</t>
+          <t>-21,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,99</t>
+          <t>-20,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-19,94</t>
+          <t>-26,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,33</t>
+          <t>-27,59</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-25,06</t>
+          <t>-15,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-13,71</t>
+          <t>-22,51</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-16,16</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-20,83</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-23,09</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-15,0</t>
+          <t>-25,07</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -5,78</t>
+          <t>-18,28; -0,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,52; -12,81</t>
+          <t>-25,36; -10,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,92; -15,01</t>
+          <t>-29,5; -14,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,73; -9,33</t>
+          <t>-28,25; -12,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,42; -15,05</t>
+          <t>-33,55; -19,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,53; -18,6</t>
+          <t>-34,37; -20,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,25; -19,86</t>
+          <t>-20,95; -9,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,3; -8,21</t>
+          <t>-27,29; -17,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,17; -12,3</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-24,42; -17,44</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-26,83; -19,51</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-18,72; -10,67</t>
+          <t>-30,36; -19,9</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-34,57%</t>
+          <t>-27,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-50,81%</t>
+          <t>-49,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-58,14%</t>
+          <t>-58,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-41,91%</t>
+          <t>-40,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-42,01%</t>
+          <t>-52,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-49,16%</t>
+          <t>-55,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-52,79%</t>
+          <t>-35,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-28,89%</t>
+          <t>-51,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-38,83%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-50,05%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-55,47%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-36,04%</t>
+          <t>-57,34%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,56; -16,72</t>
+          <t>-44,42; -2,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,56; -38,67</t>
+          <t>-61,28; -32,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,33; -44,63</t>
+          <t>-69,35; -44,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,53; -27,83</t>
+          <t>-51,97; -26,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,61; -32,47</t>
+          <t>-61,2; -43,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,24; -41,08</t>
+          <t>-63,32; -45,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,28; -43,82</t>
+          <t>-44,74; -22,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,75; -18,18</t>
+          <t>-58,26; -42,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-46,62; -30,67</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-55,89; -43,44</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-61,74; -48,44</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-43,36; -26,68</t>
+          <t>-64,48; -49,34</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-12,59</t>
+          <t>-13,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-18,09</t>
+          <t>-17,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-22,19</t>
+          <t>-22,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-17,77</t>
+          <t>-22,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-21,54</t>
+          <t>-24,75</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-23,19</t>
+          <t>-30,14</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-28,56</t>
+          <t>-18,66</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-18,4</t>
+          <t>-21,76</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-16,92</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-20,34</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-25,02</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-17,46</t>
+          <t>-26,73</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,85; -6,31</t>
+          <t>-22,71; -4,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,88; -12,01</t>
+          <t>-26,1; -9,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,92; -16,3</t>
+          <t>-29,56; -14,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,5; -6,79</t>
+          <t>-30,44; -14,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,33; -14,85</t>
+          <t>-32,01; -17,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,61; -16,45</t>
+          <t>-37,88; -23,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,65; -22,51</t>
+          <t>-24,61; -12,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,29; -10,57</t>
+          <t>-27,84; -16,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-22,04; -11,87</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-24,97; -15,78</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-29,84; -20,97</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-23,0; -10,78</t>
+          <t>-31,76; -21,56</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,54%</t>
+          <t>-37,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-51,06%</t>
+          <t>-50,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-62,64%</t>
+          <t>-62,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-50,16%</t>
+          <t>-42,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-41,2%</t>
+          <t>-45,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-44,35%</t>
+          <t>-55,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-54,63%</t>
+          <t>-41,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-35,19%</t>
+          <t>-47,82%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-38,74%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-46,55%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-57,27%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-39,98%</t>
+          <t>-58,74%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,35; -18,46</t>
+          <t>-56,61; -13,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,45; -36,81</t>
+          <t>-63,71; -32,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,24; -50,73</t>
+          <t>-73,25; -49,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,05; -19,38</t>
+          <t>-52,92; -29,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,6; -29,99</t>
+          <t>-55,08; -34,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,15; -34,13</t>
+          <t>-63,27; -45,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-61,34; -45,13</t>
+          <t>-50,53; -28,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,05; -20,95</t>
+          <t>-55,68; -38,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,7; -28,83</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-53,74; -38,01</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-63,6; -50,44</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-50,91; -25,1</t>
+          <t>-65,48; -51,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,49</t>
+          <t>-12,83</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-19,1</t>
+          <t>-20,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-21,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-15,61</t>
+          <t>-15,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,06</t>
+          <t>-18,98</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-20,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-24,84</t>
+          <t>-14,14</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-16,29</t>
+          <t>-19,89</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-16,29</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-19,8</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-23,23</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-16,07</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,95; -10,35</t>
+          <t>-18,49; -6,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,87; -15,71</t>
+          <t>-25,86; -14,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,43; -17,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,69; -11,58</t>
+          <t>-20,35; -9,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,59; -14,52</t>
+          <t>-24,35; -13,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,1; -17,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-28,21; -21,38</t>
+          <t>-17,85; -10,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,04; -12,35</t>
+          <t>-23,91; -16,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,97; -13,74</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-22,18; -17,57</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-25,48; -20,62</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-18,87; -13,44</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-40,91%</t>
+          <t>-36,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-53,92%</t>
+          <t>-57,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-60,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-44,08%</t>
+          <t>-35,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-39,58%</t>
+          <t>-43,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-44,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-54,44%</t>
+          <t>-35,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-35,71%</t>
+          <t>-50,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-40,09%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-48,74%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-57,17%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-39,54%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,283 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,89; -30,78</t>
+          <t>-50,15; -19,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-60,61; -46,74</t>
+          <t>-69,01; -42,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,56; -52,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-52,95; -34,05</t>
+          <t>-45,09; -25,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,74; -32,89</t>
+          <t>-53,76; -30,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,5; -39,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-59,37; -48,94</t>
+          <t>-43,52; -27,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-42,61; -28,1</t>
+          <t>-58,4; -42,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-45,47; -34,56</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-53,29; -44,75</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-60,96; -52,5</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-45,06; -33,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-12,86</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-18,94</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-21,31</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-16,84</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-20,24</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-24,37</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-14,88</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-19,62</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-22,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-16,72; -8,71</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-22,83; -15,38</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-24,94; -17,74</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-20,19; -13,3</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-23,26; -16,86</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-27,67; -21,25</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-17,47; -12,14</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-22,12; -17,21</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-25,31; -20,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-36,37%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-53,57%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-60,27%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-36,98%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-44,44%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-53,52%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-36,68%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-48,37%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-56,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-45,27; -25,91</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-60,03; -45,91</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-67,08; -53,05</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-42,72; -29,94</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-49,39; -38,57</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-58,53; -48,21</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-41,94; -30,78</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-53,07; -43,86</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-60,7; -51,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
